--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A146723-7725-415B-9910-A5DB106873DE}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E7BF97-2527-4B90-AEAB-A0451A80F145}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
@@ -2859,6 +2859,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3176,14 +3180,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BI123"/>
+  <dimension ref="A1:BI130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3291,7 @@
       <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
     </row>
-    <row r="2" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>284</v>
       </c>
@@ -3312,7 +3316,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>284</v>
       </c>
@@ -3337,7 +3341,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>284</v>
       </c>
@@ -3366,7 +3370,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>284</v>
       </c>
@@ -3393,7 +3397,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>284</v>
       </c>
@@ -3420,7 +3424,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>284</v>
       </c>
@@ -3445,7 +3449,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>284</v>
       </c>
@@ -3474,7 +3478,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>284</v>
       </c>
@@ -3501,7 +3505,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>284</v>
       </c>
@@ -3528,7 +3532,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:61" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>284</v>
       </c>
@@ -3555,7 +3559,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>284</v>
       </c>
@@ -3580,7 +3584,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>284</v>
       </c>
@@ -3609,7 +3613,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>284</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>284</v>
       </c>
@@ -3661,7 +3665,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>284</v>
       </c>
@@ -3686,7 +3690,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>284</v>
       </c>
@@ -3711,7 +3715,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>284</v>
       </c>
@@ -3738,7 +3742,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>284</v>
       </c>
@@ -3765,7 +3769,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>284</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>284</v>
       </c>
@@ -3817,7 +3821,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>284</v>
       </c>
@@ -3844,7 +3848,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>284</v>
       </c>
@@ -3875,7 +3879,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>284</v>
       </c>
@@ -3900,7 +3904,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>284</v>
       </c>
@@ -3948,7 +3952,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>284</v>
       </c>
@@ -3975,7 +3979,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>284</v>
       </c>
@@ -4004,7 +4008,7 @@
       </c>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>284</v>
       </c>
@@ -4031,7 +4035,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>284</v>
       </c>
@@ -4083,7 +4087,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>284</v>
       </c>
@@ -4110,7 +4114,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
         <v>284</v>
       </c>
@@ -4135,7 +4139,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>284</v>
       </c>
@@ -4160,7 +4164,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>284</v>
       </c>
@@ -4185,7 +4189,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>284</v>
       </c>
@@ -4238,7 +4242,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>284</v>
       </c>
@@ -4263,7 +4267,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>284</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>284</v>
       </c>
@@ -4313,7 +4317,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>284</v>
       </c>
@@ -4338,7 +4342,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>284</v>
       </c>
@@ -4365,7 +4369,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
         <v>284</v>
       </c>
@@ -4394,7 +4398,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>284</v>
       </c>
@@ -4419,7 +4423,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
         <v>284</v>
       </c>
@@ -4450,7 +4454,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
         <v>284</v>
       </c>
@@ -4479,7 +4483,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
         <v>284</v>
       </c>
@@ -4504,7 +4508,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
         <v>284</v>
       </c>
@@ -4531,7 +4535,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>284</v>
       </c>
@@ -4556,7 +4560,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
         <v>284</v>
       </c>
@@ -4581,7 +4585,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
         <v>284</v>
       </c>
@@ -4608,7 +4612,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
         <v>284</v>
       </c>
@@ -4628,7 +4632,7 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>249</v>
       </c>
@@ -4651,7 +4655,7 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
         <v>258</v>
       </c>
@@ -4674,7 +4678,7 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
         <v>258</v>
       </c>
@@ -4697,7 +4701,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
         <v>258</v>
       </c>
@@ -4720,7 +4724,7 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
         <v>258</v>
       </c>
@@ -4745,7 +4749,7 @@
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>250</v>
       </c>
@@ -4770,7 +4774,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="s">
         <v>258</v>
       </c>
@@ -4793,7 +4797,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
         <v>258</v>
       </c>
@@ -4816,7 +4820,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
         <v>276</v>
       </c>
@@ -4839,7 +4843,7 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>282</v>
       </c>
@@ -4862,7 +4866,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="67" t="s">
         <v>248</v>
       </c>
@@ -4887,7 +4891,7 @@
       <c r="J63" s="28"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
         <v>249</v>
       </c>
@@ -4912,7 +4916,7 @@
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>249</v>
       </c>
@@ -4937,7 +4941,7 @@
       <c r="J65" s="28"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
         <v>249</v>
       </c>
@@ -4966,7 +4970,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>251</v>
       </c>
@@ -4991,7 +4995,7 @@
       <c r="J67" s="28"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
         <v>252</v>
       </c>
@@ -5020,7 +5024,7 @@
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
         <v>252</v>
       </c>
@@ -5045,7 +5049,7 @@
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
         <v>253</v>
       </c>
@@ -5070,7 +5074,7 @@
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>254</v>
       </c>
@@ -5095,7 +5099,7 @@
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
         <v>255</v>
       </c>
@@ -5120,7 +5124,7 @@
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="60" t="s">
         <v>255</v>
       </c>
@@ -5143,7 +5147,7 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
         <v>255</v>
       </c>
@@ -5168,7 +5172,7 @@
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60" t="s">
         <v>255</v>
       </c>
@@ -5193,7 +5197,7 @@
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
         <v>255</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="60" t="s">
         <v>255</v>
       </c>
@@ -5243,7 +5247,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
         <v>255</v>
       </c>
@@ -5268,7 +5272,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="60" t="s">
         <v>255</v>
       </c>
@@ -5291,7 +5295,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
         <v>256</v>
       </c>
@@ -5316,7 +5320,7 @@
       <c r="J80" s="28"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="60" t="s">
         <v>257</v>
       </c>
@@ -5345,7 +5349,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>257</v>
       </c>
@@ -5370,7 +5374,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>259</v>
       </c>
@@ -5395,7 +5399,7 @@
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>258</v>
       </c>
@@ -5420,7 +5424,7 @@
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>260</v>
       </c>
@@ -5445,7 +5449,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
         <v>261</v>
       </c>
@@ -5470,7 +5474,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
         <v>262</v>
       </c>
@@ -5495,7 +5499,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
         <v>445</v>
       </c>
@@ -5520,7 +5524,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="60" t="s">
         <v>263</v>
       </c>
@@ -5545,7 +5549,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
         <v>264</v>
       </c>
@@ -5597,7 +5601,7 @@
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>267</v>
       </c>
@@ -5622,7 +5626,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>265</v>
       </c>
@@ -5647,7 +5651,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
         <v>268</v>
       </c>
@@ -5672,7 +5676,7 @@
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
         <v>268</v>
       </c>
@@ -5697,7 +5701,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
         <v>268</v>
       </c>
@@ -5726,7 +5730,7 @@
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>269</v>
       </c>
@@ -5755,7 +5759,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
         <v>269</v>
       </c>
@@ -5780,7 +5784,7 @@
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
         <v>269</v>
       </c>
@@ -5805,7 +5809,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
         <v>270</v>
       </c>
@@ -5832,7 +5836,7 @@
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
         <v>270</v>
       </c>
@@ -5857,7 +5861,7 @@
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
         <v>271</v>
       </c>
@@ -5882,7 +5886,7 @@
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
         <v>271</v>
       </c>
@@ -5907,7 +5911,7 @@
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
         <v>272</v>
       </c>
@@ -5932,7 +5936,7 @@
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="s">
         <v>272</v>
       </c>
@@ -5957,7 +5961,7 @@
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="s">
         <v>273</v>
       </c>
@@ -5986,7 +5990,7 @@
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>274</v>
       </c>
@@ -6011,7 +6015,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
         <v>274</v>
       </c>
@@ -6040,7 +6044,7 @@
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="60" t="s">
         <v>275</v>
       </c>
@@ -6065,7 +6069,7 @@
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="60" t="s">
         <v>276</v>
       </c>
@@ -6094,7 +6098,7 @@
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="s">
         <v>277</v>
       </c>
@@ -6119,7 +6123,7 @@
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="s">
         <v>278</v>
       </c>
@@ -6144,7 +6148,7 @@
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
         <v>278</v>
       </c>
@@ -6169,7 +6173,7 @@
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>280</v>
       </c>
@@ -6194,7 +6198,7 @@
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>280</v>
       </c>
@@ -6219,7 +6223,7 @@
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
         <v>280</v>
       </c>
@@ -6248,7 +6252,7 @@
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
         <v>281</v>
       </c>
@@ -6449,8 +6453,20 @@
       <c r="J123" s="28"/>
       <c r="K123" s="8"/>
     </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:BI130" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DESCUBIERTO"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:BI130">
       <sortCondition ref="D1:D130"/>
     </sortState>

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="461" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D738BA46-CD80-43BF-9BBA-78E4C50A999F}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD2573D-6479-4F1B-89DA-BD824ADF47AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SEGUIMIENTO" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEGUIMIENTO!$A$1:$BI$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEGUIMIENTO!$A$1:$AA$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2016,6 +2016,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2046,6 +2056,36 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2066,6 +2106,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2076,6 +2136,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2086,6 +2166,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2096,6 +2186,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2106,6 +2206,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2116,6 +2236,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2126,6 +2256,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2136,6 +2276,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2146,6 +2296,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2156,6 +2316,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2166,6 +2336,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2176,6 +2356,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2186,6 +2376,36 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2196,6 +2416,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2206,6 +2436,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2216,6 +2456,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2236,6 +2486,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2246,6 +2516,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2256,6 +2536,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2306,6 +2596,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2316,6 +2616,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2326,6 +2636,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2336,6 +2656,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2346,6 +2676,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2356,6 +2696,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2416,6 +2766,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2426,6 +2786,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2436,387 +2806,17 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3183,30 +3183,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BI123"/>
+  <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="J126" sqref="B117:J126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.42578125" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="20" customWidth="1"/>
-    <col min="12" max="61" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="13.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.453125" customWidth="1"/>
+    <col min="9" max="9" width="49.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.54296875" style="20" customWidth="1"/>
+    <col min="12" max="27" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>283</v>
       </c>
@@ -3240,8 +3240,8 @@
       <c r="K1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3256,42 +3256,8 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-    </row>
-    <row r="2" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A2" s="60" t="s">
         <v>284</v>
       </c>
@@ -3316,7 +3282,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A3" s="60" t="s">
         <v>284</v>
       </c>
@@ -3341,7 +3307,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A4" s="60" t="s">
         <v>284</v>
       </c>
@@ -3370,7 +3336,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A5" s="60" t="s">
         <v>284</v>
       </c>
@@ -3397,7 +3363,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A6" s="60" t="s">
         <v>284</v>
       </c>
@@ -3424,7 +3390,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A7" s="60" t="s">
         <v>284</v>
       </c>
@@ -3449,7 +3415,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A8" s="60" t="s">
         <v>284</v>
       </c>
@@ -3478,7 +3444,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A9" s="60" t="s">
         <v>284</v>
       </c>
@@ -3505,7 +3471,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A10" s="60" t="s">
         <v>284</v>
       </c>
@@ -3532,7 +3498,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:61" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="60" t="s">
         <v>284</v>
       </c>
@@ -3559,7 +3525,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A12" s="60" t="s">
         <v>284</v>
       </c>
@@ -3584,7 +3550,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A13" s="60" t="s">
         <v>284</v>
       </c>
@@ -3613,7 +3579,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A14" s="60" t="s">
         <v>284</v>
       </c>
@@ -3638,7 +3604,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A15" s="60" t="s">
         <v>284</v>
       </c>
@@ -3665,7 +3631,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A16" s="60" t="s">
         <v>284</v>
       </c>
@@ -3690,7 +3656,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A17" s="60" t="s">
         <v>284</v>
       </c>
@@ -3715,7 +3681,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A18" s="60" t="s">
         <v>284</v>
       </c>
@@ -3742,7 +3708,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A19" s="60" t="s">
         <v>284</v>
       </c>
@@ -3769,7 +3735,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A20" s="60" t="s">
         <v>284</v>
       </c>
@@ -3794,7 +3760,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A21" s="60" t="s">
         <v>284</v>
       </c>
@@ -3821,7 +3787,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A22" s="60" t="s">
         <v>284</v>
       </c>
@@ -3848,7 +3814,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A23" s="60" t="s">
         <v>284</v>
       </c>
@@ -3879,7 +3845,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A24" s="60" t="s">
         <v>284</v>
       </c>
@@ -3904,7 +3870,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A25" s="60" t="s">
         <v>284</v>
       </c>
@@ -3929,7 +3895,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="60" t="s">
         <v>284</v>
       </c>
@@ -3952,7 +3918,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A27" s="60" t="s">
         <v>284</v>
       </c>
@@ -3979,7 +3945,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A28" s="60" t="s">
         <v>284</v>
       </c>
@@ -4008,7 +3974,7 @@
       </c>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A29" s="60" t="s">
         <v>284</v>
       </c>
@@ -4035,7 +4001,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A30" s="60" t="s">
         <v>284</v>
       </c>
@@ -4060,7 +4026,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A31" s="60" t="s">
         <v>284</v>
       </c>
@@ -4087,7 +4053,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A32" s="60" t="s">
         <v>284</v>
       </c>
@@ -4114,7 +4080,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="60" t="s">
         <v>284</v>
       </c>
@@ -4139,7 +4105,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A34" s="60" t="s">
         <v>284</v>
       </c>
@@ -4164,7 +4130,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A35" s="60" t="s">
         <v>284</v>
       </c>
@@ -4189,7 +4155,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A36" s="60" t="s">
         <v>284</v>
       </c>
@@ -4215,7 +4181,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A37" s="60" t="s">
         <v>284</v>
       </c>
@@ -4242,7 +4208,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A38" s="60" t="s">
         <v>284</v>
       </c>
@@ -4267,7 +4233,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A39" s="60" t="s">
         <v>284</v>
       </c>
@@ -4292,7 +4258,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A40" s="60" t="s">
         <v>284</v>
       </c>
@@ -4317,7 +4283,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A41" s="60" t="s">
         <v>284</v>
       </c>
@@ -4342,7 +4308,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A42" s="60" t="s">
         <v>284</v>
       </c>
@@ -4369,7 +4335,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A43" s="60" t="s">
         <v>284</v>
       </c>
@@ -4398,7 +4364,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A44" s="60" t="s">
         <v>284</v>
       </c>
@@ -4423,7 +4389,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A45" s="60" t="s">
         <v>284</v>
       </c>
@@ -4454,7 +4420,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A46" s="60" t="s">
         <v>284</v>
       </c>
@@ -4483,7 +4449,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A47" s="60" t="s">
         <v>284</v>
       </c>
@@ -4508,7 +4474,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="60" t="s">
         <v>284</v>
       </c>
@@ -4535,7 +4501,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="60" t="s">
         <v>284</v>
       </c>
@@ -4560,7 +4526,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="60" t="s">
         <v>284</v>
       </c>
@@ -4585,7 +4551,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A51" s="60" t="s">
         <v>284</v>
       </c>
@@ -4612,7 +4578,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A52" s="60" t="s">
         <v>284</v>
       </c>
@@ -4632,7 +4598,7 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A53" s="61" t="s">
         <v>249</v>
       </c>
@@ -4655,7 +4621,7 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A54" s="60" t="s">
         <v>258</v>
       </c>
@@ -4678,7 +4644,7 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A55" s="60" t="s">
         <v>258</v>
       </c>
@@ -4701,7 +4667,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A56" s="60" t="s">
         <v>258</v>
       </c>
@@ -4724,7 +4690,7 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A57" s="60" t="s">
         <v>258</v>
       </c>
@@ -4749,7 +4715,7 @@
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A58" s="64" t="s">
         <v>250</v>
       </c>
@@ -4774,7 +4740,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A59" s="60" t="s">
         <v>258</v>
       </c>
@@ -4797,7 +4763,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A60" s="60" t="s">
         <v>258</v>
       </c>
@@ -4820,7 +4786,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A61" s="60" t="s">
         <v>276</v>
       </c>
@@ -4843,7 +4809,7 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A62" s="61" t="s">
         <v>282</v>
       </c>
@@ -4866,7 +4832,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A63" s="67" t="s">
         <v>248</v>
       </c>
@@ -4891,7 +4857,7 @@
       <c r="J63" s="28"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A64" s="68" t="s">
         <v>249</v>
       </c>
@@ -4916,7 +4882,7 @@
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A65" s="68" t="s">
         <v>249</v>
       </c>
@@ -4941,7 +4907,7 @@
       <c r="J65" s="28"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A66" s="68" t="s">
         <v>249</v>
       </c>
@@ -4970,7 +4936,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A67" s="64" t="s">
         <v>251</v>
       </c>
@@ -4995,7 +4961,7 @@
       <c r="J67" s="28"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A68" s="64" t="s">
         <v>252</v>
       </c>
@@ -5024,7 +4990,7 @@
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A69" s="64" t="s">
         <v>252</v>
       </c>
@@ -5049,7 +5015,7 @@
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A70" s="64" t="s">
         <v>253</v>
       </c>
@@ -5074,7 +5040,7 @@
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A71" s="64" t="s">
         <v>254</v>
       </c>
@@ -5099,7 +5065,7 @@
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A72" s="60" t="s">
         <v>255</v>
       </c>
@@ -5124,7 +5090,7 @@
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A73" s="60" t="s">
         <v>255</v>
       </c>
@@ -5147,7 +5113,7 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A74" s="60" t="s">
         <v>255</v>
       </c>
@@ -5172,7 +5138,7 @@
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="60" t="s">
         <v>255</v>
       </c>
@@ -5197,7 +5163,7 @@
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A76" s="60" t="s">
         <v>255</v>
       </c>
@@ -5222,7 +5188,7 @@
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A77" s="60" t="s">
         <v>255</v>
       </c>
@@ -5247,7 +5213,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A78" s="60" t="s">
         <v>255</v>
       </c>
@@ -5272,7 +5238,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A79" s="60" t="s">
         <v>255</v>
       </c>
@@ -5295,7 +5261,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A80" s="60" t="s">
         <v>256</v>
       </c>
@@ -5320,7 +5286,7 @@
       <c r="J80" s="28"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A81" s="60" t="s">
         <v>257</v>
       </c>
@@ -5349,7 +5315,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="62" t="s">
         <v>257</v>
       </c>
@@ -5374,7 +5340,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A83" s="69" t="s">
         <v>259</v>
       </c>
@@ -5399,7 +5365,7 @@
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="69" t="s">
         <v>258</v>
       </c>
@@ -5424,7 +5390,7 @@
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.45">
       <c r="A85" s="64" t="s">
         <v>260</v>
       </c>
@@ -5449,7 +5415,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A86" s="60" t="s">
         <v>261</v>
       </c>
@@ -5474,7 +5440,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A87" s="60" t="s">
         <v>262</v>
       </c>
@@ -5499,7 +5465,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A88" s="52" t="s">
         <v>445</v>
       </c>
@@ -5524,7 +5490,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A89" s="60" t="s">
         <v>263</v>
       </c>
@@ -5549,7 +5515,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A90" s="60" t="s">
         <v>264</v>
       </c>
@@ -5574,7 +5540,7 @@
       <c r="J90" s="28"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="64" t="s">
         <v>266</v>
       </c>
@@ -5601,7 +5567,7 @@
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A92" s="64" t="s">
         <v>267</v>
       </c>
@@ -5626,7 +5592,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A93" s="64" t="s">
         <v>265</v>
       </c>
@@ -5651,7 +5617,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A94" s="64" t="s">
         <v>268</v>
       </c>
@@ -5676,7 +5642,7 @@
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A95" s="64" t="s">
         <v>268</v>
       </c>
@@ -5701,7 +5667,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A96" s="64" t="s">
         <v>268</v>
       </c>
@@ -5730,7 +5696,7 @@
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A97" s="64" t="s">
         <v>269</v>
       </c>
@@ -5759,7 +5725,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A98" s="64" t="s">
         <v>269</v>
       </c>
@@ -5784,7 +5750,7 @@
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A99" s="64" t="s">
         <v>269</v>
       </c>
@@ -5809,7 +5775,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A100" s="60" t="s">
         <v>270</v>
       </c>
@@ -5836,7 +5802,7 @@
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A101" s="60" t="s">
         <v>270</v>
       </c>
@@ -5861,7 +5827,7 @@
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A102" s="60" t="s">
         <v>271</v>
       </c>
@@ -5886,7 +5852,7 @@
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A103" s="60" t="s">
         <v>271</v>
       </c>
@@ -5911,7 +5877,7 @@
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A104" s="60" t="s">
         <v>272</v>
       </c>
@@ -5936,7 +5902,7 @@
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A105" s="60" t="s">
         <v>272</v>
       </c>
@@ -5961,7 +5927,7 @@
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A106" s="60" t="s">
         <v>273</v>
       </c>
@@ -5990,7 +5956,7 @@
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A107" s="64" t="s">
         <v>274</v>
       </c>
@@ -6015,7 +5981,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A108" s="64" t="s">
         <v>274</v>
       </c>
@@ -6044,7 +6010,7 @@
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A109" s="60" t="s">
         <v>275</v>
       </c>
@@ -6069,7 +6035,7 @@
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A110" s="60" t="s">
         <v>276</v>
       </c>
@@ -6098,7 +6064,7 @@
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.45">
       <c r="A111" s="60" t="s">
         <v>277</v>
       </c>
@@ -6123,7 +6089,7 @@
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A112" s="60" t="s">
         <v>278</v>
       </c>
@@ -6148,7 +6114,7 @@
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="60" t="s">
         <v>278</v>
       </c>
@@ -6173,7 +6139,7 @@
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A114" s="64" t="s">
         <v>280</v>
       </c>
@@ -6198,7 +6164,7 @@
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A115" s="64" t="s">
         <v>280</v>
       </c>
@@ -6223,7 +6189,7 @@
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A116" s="66" t="s">
         <v>280</v>
       </c>
@@ -6252,7 +6218,7 @@
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A117" s="69" t="s">
         <v>281</v>
       </c>
@@ -6279,7 +6245,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A118" s="69" t="s">
         <v>281</v>
       </c>
@@ -6308,7 +6274,7 @@
       <c r="J118" s="28"/>
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A119" s="63" t="s">
         <v>252</v>
       </c>
@@ -6337,7 +6303,7 @@
       <c r="J119" s="28"/>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A120" s="63" t="s">
         <v>274</v>
       </c>
@@ -6366,7 +6332,7 @@
       <c r="J120" s="28"/>
       <c r="K120" s="8"/>
     </row>
-    <row r="121" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A121" s="60" t="s">
         <v>275</v>
       </c>
@@ -6395,7 +6361,7 @@
       <c r="J121" s="28"/>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A122" s="64" t="s">
         <v>279</v>
       </c>
@@ -6424,7 +6390,7 @@
       <c r="J122" s="28"/>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A123" s="60" t="s">
         <v>281</v>
       </c>
@@ -6454,11 +6420,6 @@
       <c r="K123" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI130" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:BI130">
-      <sortCondition ref="D1:D130"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="C108">
     <cfRule type="containsText" dxfId="93" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",C108)))</formula>
@@ -6468,31 +6429,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" dxfId="91" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E73)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="362" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
     <cfRule type="containsText" dxfId="88" priority="335" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E79)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="336" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="337" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E79)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="358" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="337" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="336" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
@@ -6502,22 +6463,22 @@
     <cfRule type="containsText" dxfId="84" priority="92" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E83)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="93" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E83)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="94" operator="greaterThan">
       <formula>$G82="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="93" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E83)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="containsText" dxfId="82" priority="356" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="82" priority="355" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="356" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E101)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="357" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="355" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
@@ -6531,31 +6492,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="containsText" dxfId="80" priority="24" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="80" priority="22" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="23" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="24" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E112)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="25" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="23" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="22" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E112)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E115">
+    <cfRule type="containsText" dxfId="77" priority="346" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="347" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="348" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E114)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="349" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="347" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="346" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="348" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
@@ -6606,17 +6567,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="66" priority="2" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="66" priority="1" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="2" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F68)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3" operator="greaterThan">
       <formula>$G68="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="4" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="64" priority="4" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="1" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F73">
@@ -6628,11 +6589,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F83">
+    <cfRule type="cellIs" priority="97" operator="greaterThan">
+      <formula>$G71="Activo"</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="61" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F71)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="97" operator="greaterThan">
-      <formula>$G71="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F90">
@@ -6673,11 +6634,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F101">
-    <cfRule type="containsText" dxfId="52" priority="27" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="52" priority="26" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="27" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="26" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F102">
@@ -6716,30 +6677,30 @@
     <cfRule type="cellIs" priority="39" operator="greaterThan">
       <formula>$G110="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="41" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="44" priority="40" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="41" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="40" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F110)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="42" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="41" priority="37" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="41" priority="36" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="37" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="36" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F112)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:F115">
+    <cfRule type="cellIs" priority="35" operator="greaterThan">
+      <formula>$G112="Activo"</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="39" priority="38" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F112)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="35" operator="greaterThan">
-      <formula>$G112="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117:F121">
@@ -6748,28 +6709,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:F121">
-    <cfRule type="containsText" dxfId="38" priority="50" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="38" priority="48" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="49" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="50" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="48" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="49" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F118)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="35" priority="46" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F123)))</formula>
+    <cfRule type="cellIs" priority="43" operator="greaterThan">
+      <formula>$G123="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="44" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F123)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="45" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="44" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F123)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="43" operator="greaterThan">
-      <formula>$G123="Activo"</formula>
+    <cfRule type="containsText" dxfId="33" priority="46" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53 F53:F66">
@@ -6781,17 +6742,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="30" priority="130" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="131" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="132" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="133" operator="greaterThan">
       <formula>$G80="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="132" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="131" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="130" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 F113:F115 H117">
@@ -6830,11 +6791,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120">
-    <cfRule type="containsText" dxfId="24" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="24" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",H120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H128">
@@ -6848,11 +6809,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H129">
-    <cfRule type="containsText" dxfId="21" priority="128" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="21" priority="127" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="128" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",H121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="127" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
@@ -6920,14 +6881,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="13" priority="89" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="13" priority="87" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="88" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="89" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",I77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="87" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="88" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:I79">

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="477" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C346E7-BF13-41BB-BAEE-8432811366AF}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B67E41A-D673-4852-9276-CD385A4E97F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="6" r:id="rId1"/>
@@ -3177,14 +3177,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,7 +3254,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>283</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>283</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>283</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>283</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>283</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>283</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>283</v>
       </c>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>283</v>
       </c>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>283</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>283</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>283</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>283</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>283</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>283</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>283</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>283</v>
       </c>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>283</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>283</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>283</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>283</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>283</v>
       </c>
@@ -3867,7 +3867,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>283</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>283</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>283</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>283</v>
       </c>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>283</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>283</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
         <v>283</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>283</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>283</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>283</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>283</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>283</v>
       </c>
@@ -4255,7 +4255,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>283</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>283</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>283</v>
       </c>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
         <v>283</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>283</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
         <v>283</v>
       </c>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
         <v>283</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
         <v>283</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
         <v>283</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>283</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
         <v>283</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
         <v>283</v>
       </c>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
         <v>283</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>248</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
         <v>257</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
         <v>257</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
         <v>257</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
         <v>257</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>249</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="s">
         <v>257</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
         <v>257</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
         <v>275</v>
       </c>
@@ -4806,7 +4806,7 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>281</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="67" t="s">
         <v>247</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>248</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="J65" s="28"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
         <v>248</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>250</v>
       </c>
@@ -4958,7 +4958,7 @@
       <c r="J67" s="28"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
         <v>251</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
         <v>251</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
         <v>252</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>253</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
         <v>254</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="60" t="s">
         <v>254</v>
       </c>
@@ -5110,7 +5110,7 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
         <v>254</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60" t="s">
         <v>254</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
         <v>254</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="60" t="s">
         <v>254</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
         <v>254</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="60" t="s">
         <v>254</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
         <v>255</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="J80" s="28"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="60" t="s">
         <v>256</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>256</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>258</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>257</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>259</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
         <v>260</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
         <v>261</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
         <v>444</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="60" t="s">
         <v>262</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
         <v>263</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>266</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>264</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
         <v>267</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
         <v>267</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
         <v>267</v>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>268</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
         <v>268</v>
       </c>
@@ -5747,7 +5747,7 @@
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
         <v>268</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
         <v>269</v>
       </c>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
         <v>269</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
         <v>270</v>
       </c>
@@ -5849,7 +5849,7 @@
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
         <v>270</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
         <v>271</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="s">
         <v>271</v>
       </c>
@@ -5924,7 +5924,7 @@
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="s">
         <v>272</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>273</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
         <v>273</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="60" t="s">
         <v>274</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="60" t="s">
         <v>275</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="s">
         <v>276</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="s">
         <v>277</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
         <v>277</v>
       </c>
@@ -6136,7 +6136,7 @@
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>279</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>279</v>
       </c>
@@ -6186,7 +6186,7 @@
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
         <v>279</v>
       </c>
@@ -6215,7 +6215,7 @@
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
         <v>280</v>
       </c>
@@ -6417,7 +6417,13 @@
       <c r="K123" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}"/>
+  <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DESCUBIERTO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C108">
     <cfRule type="containsText" dxfId="93" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",C108)))</formula>

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Documents/GitHub/SIFU/operacionessifu_alex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE483E9-9BC0-452E-9EE8-7F97BD598635}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
@@ -2814,10 +2814,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3141,8 +3137,8 @@
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H137" sqref="F135:H137"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D107:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5916,8 +5912,8 @@
       <c r="C108" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>133</v>
+      <c r="D108" s="55" t="s">
+        <v>174</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>351</v>

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A961DA-4DF8-475E-B949-006E69DCF469}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D104A6-B2A6-4E23-9DB1-EF6BD411F600}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="451">
   <si>
     <t>SVO08017-P1-C018</t>
   </si>
@@ -1392,7 +1392,7 @@
     <t>SVO09531</t>
   </si>
   <si>
-    <t>SIN TITULAR</t>
+    <t>1 vez al mes</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1866,13 +1866,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="98">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1909,6 +1912,46 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1919,6 +1962,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -1929,6 +1992,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -1939,6 +2012,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1969,6 +2052,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1989,6 +2082,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2029,6 +2142,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2039,6 +2162,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2059,6 +2192,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2069,6 +2222,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2079,6 +2252,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2089,6 +2272,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2099,6 +2292,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2149,6 +2352,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2169,6 +2382,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2189,6 +2422,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2199,6 +2442,36 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2229,6 +2502,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2239,6 +2532,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2289,6 +2602,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2319,6 +2642,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2329,6 +2672,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2339,6 +2702,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2349,6 +2732,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2359,6 +2752,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2369,6 +2782,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2379,6 +2812,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2389,577 +2832,27 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3310,7 +3203,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,7 +3273,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>269</v>
       </c>
@@ -3405,7 +3298,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>269</v>
       </c>
@@ -3430,7 +3323,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>269</v>
       </c>
@@ -3459,7 +3352,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>269</v>
       </c>
@@ -3484,7 +3377,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>269</v>
       </c>
@@ -3511,7 +3404,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>269</v>
       </c>
@@ -3536,7 +3429,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>269</v>
       </c>
@@ -3563,7 +3456,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>269</v>
       </c>
@@ -3619,7 +3512,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>269</v>
       </c>
@@ -3646,7 +3539,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>269</v>
       </c>
@@ -3671,7 +3564,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>269</v>
       </c>
@@ -3700,7 +3593,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>269</v>
       </c>
@@ -3725,7 +3618,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>269</v>
       </c>
@@ -3752,7 +3645,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>269</v>
       </c>
@@ -3777,7 +3670,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>269</v>
       </c>
@@ -3802,7 +3695,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>269</v>
       </c>
@@ -3827,7 +3720,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>269</v>
       </c>
@@ -3856,14 +3749,14 @@
       <c r="A20" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="38" t="s">
         <v>105</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>450</v>
+        <v>174</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
@@ -3877,7 +3770,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>269</v>
       </c>
@@ -3902,7 +3795,7 @@
       <c r="J21" s="35"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>269</v>
       </c>
@@ -3927,7 +3820,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>269</v>
       </c>
@@ -3956,7 +3849,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>269</v>
       </c>
@@ -3981,7 +3874,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>269</v>
       </c>
@@ -4017,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>450</v>
+        <v>174</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -4031,7 +3924,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>269</v>
       </c>
@@ -4058,7 +3951,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>269</v>
       </c>
@@ -4085,7 +3978,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>269</v>
       </c>
@@ -4110,7 +4003,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>269</v>
       </c>
@@ -4162,7 +4055,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>269</v>
       </c>
@@ -4189,7 +4082,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
         <v>269</v>
       </c>
@@ -4214,7 +4107,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>269</v>
       </c>
@@ -4239,7 +4132,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>269</v>
       </c>
@@ -4264,7 +4157,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>269</v>
       </c>
@@ -4319,7 +4212,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>269</v>
       </c>
@@ -4344,7 +4237,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>269</v>
       </c>
@@ -4369,7 +4262,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>269</v>
       </c>
@@ -4394,7 +4287,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>269</v>
       </c>
@@ -4419,7 +4312,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>269</v>
       </c>
@@ -4444,7 +4337,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
         <v>269</v>
       </c>
@@ -4473,7 +4366,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>269</v>
       </c>
@@ -4527,7 +4420,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
         <v>269</v>
       </c>
@@ -4554,7 +4447,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
         <v>269</v>
       </c>
@@ -4579,7 +4472,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
         <v>269</v>
       </c>
@@ -4604,7 +4497,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>269</v>
       </c>
@@ -4629,7 +4522,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
         <v>269</v>
       </c>
@@ -4654,7 +4547,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
         <v>269</v>
       </c>
@@ -4679,7 +4572,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
         <v>269</v>
       </c>
@@ -4699,7 +4592,7 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>234</v>
       </c>
@@ -4722,7 +4615,7 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
         <v>243</v>
       </c>
@@ -4745,7 +4638,7 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
         <v>243</v>
       </c>
@@ -4768,7 +4661,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
         <v>243</v>
       </c>
@@ -4791,7 +4684,7 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
         <v>243</v>
       </c>
@@ -4816,7 +4709,7 @@
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>235</v>
       </c>
@@ -4841,7 +4734,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="s">
         <v>243</v>
       </c>
@@ -4864,7 +4757,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
         <v>243</v>
       </c>
@@ -4887,7 +4780,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
         <v>261</v>
       </c>
@@ -4910,7 +4803,7 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>267</v>
       </c>
@@ -4933,7 +4826,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A63" s="67" t="s">
         <v>233</v>
       </c>
@@ -4987,7 +4880,7 @@
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>234</v>
       </c>
@@ -5041,7 +4934,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>236</v>
       </c>
@@ -5095,7 +4988,7 @@
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
         <v>237</v>
       </c>
@@ -5120,7 +5013,7 @@
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
         <v>238</v>
       </c>
@@ -5145,7 +5038,7 @@
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>239</v>
       </c>
@@ -5170,7 +5063,7 @@
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
         <v>240</v>
       </c>
@@ -5195,7 +5088,7 @@
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A73" s="60" t="s">
         <v>240</v>
       </c>
@@ -5218,7 +5111,7 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
         <v>240</v>
       </c>
@@ -5243,7 +5136,7 @@
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60" t="s">
         <v>240</v>
       </c>
@@ -5268,7 +5161,7 @@
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
         <v>240</v>
       </c>
@@ -5293,7 +5186,7 @@
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="60" t="s">
         <v>240</v>
       </c>
@@ -5318,7 +5211,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
         <v>240</v>
       </c>
@@ -5343,7 +5236,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A79" s="60" t="s">
         <v>240</v>
       </c>
@@ -5366,7 +5259,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
         <v>241</v>
       </c>
@@ -5420,7 +5313,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>242</v>
       </c>
@@ -5445,7 +5338,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>244</v>
       </c>
@@ -5470,7 +5363,7 @@
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>243</v>
       </c>
@@ -5495,7 +5388,7 @@
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>245</v>
       </c>
@@ -5520,7 +5413,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
         <v>246</v>
       </c>
@@ -5545,7 +5438,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
         <v>247</v>
       </c>
@@ -5570,7 +5463,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
         <v>430</v>
       </c>
@@ -5595,7 +5488,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="60" t="s">
         <v>248</v>
       </c>
@@ -5620,7 +5513,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
         <v>249</v>
       </c>
@@ -5668,11 +5561,13 @@
       <c r="H91" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="I91" s="8"/>
+      <c r="I91" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>252</v>
       </c>
@@ -5697,7 +5592,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>250</v>
       </c>
@@ -5722,7 +5617,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
         <v>253</v>
       </c>
@@ -5747,7 +5642,7 @@
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
         <v>253</v>
       </c>
@@ -5772,7 +5667,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
         <v>253</v>
       </c>
@@ -5801,7 +5696,7 @@
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>254</v>
       </c>
@@ -5830,7 +5725,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
         <v>254</v>
       </c>
@@ -5855,7 +5750,7 @@
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
         <v>254</v>
       </c>
@@ -5880,7 +5775,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
         <v>255</v>
       </c>
@@ -5907,7 +5802,7 @@
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
         <v>255</v>
       </c>
@@ -5932,7 +5827,7 @@
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
         <v>256</v>
       </c>
@@ -5957,7 +5852,7 @@
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
         <v>256</v>
       </c>
@@ -5982,7 +5877,7 @@
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
         <v>257</v>
       </c>
@@ -6007,7 +5902,7 @@
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="s">
         <v>257</v>
       </c>
@@ -6032,7 +5927,7 @@
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="s">
         <v>258</v>
       </c>
@@ -6061,7 +5956,7 @@
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>259</v>
       </c>
@@ -6115,7 +6010,7 @@
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A109" s="60" t="s">
         <v>260</v>
       </c>
@@ -6140,7 +6035,7 @@
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A110" s="60" t="s">
         <v>261</v>
       </c>
@@ -6169,7 +6064,7 @@
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="s">
         <v>262</v>
       </c>
@@ -6194,7 +6089,7 @@
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="s">
         <v>263</v>
       </c>
@@ -6219,7 +6114,7 @@
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
         <v>263</v>
       </c>
@@ -6244,7 +6139,7 @@
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>265</v>
       </c>
@@ -6269,7 +6164,7 @@
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>265</v>
       </c>
@@ -6294,7 +6189,7 @@
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
         <v>265</v>
       </c>
@@ -6323,7 +6218,7 @@
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
         <v>266</v>
       </c>
@@ -6418,10 +6313,10 @@
       <c r="C120" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="D120" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="E120" s="72" t="s">
+      <c r="D120" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="74" t="s">
         <v>352</v>
       </c>
       <c r="F120" s="21" t="s">
@@ -6526,11 +6421,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DESCUBIERTO"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters blank="1">
         <filter val="BAJA IT"/>
@@ -6538,64 +6428,64 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C108">
-    <cfRule type="containsText" dxfId="108" priority="387" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="97" priority="388" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",C108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="387" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",C108)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="388" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",C108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
     <cfRule type="cellIs" priority="382" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="381" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="95" priority="380" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="379" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="381" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="380" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="379" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E73)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="103" priority="355" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E79)))</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="378" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="357" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="92" priority="357" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="356" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="91" priority="355" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="356" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="100" priority="111" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="112" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="89" priority="112" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E83)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="114" operator="greaterThan">
       <formula>$G82="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="113" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="88" priority="113" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E83)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="111" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E83)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="containsText" dxfId="97" priority="376" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="86" priority="375" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="376" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E101)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="377" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="375" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
@@ -6609,16 +6499,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="containsText" dxfId="95" priority="44" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E112)))</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="45" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="43" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="84" priority="44" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="43" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="42" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="82" priority="42" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E112)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6626,14 +6516,14 @@
     <cfRule type="cellIs" priority="369" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="81" priority="368" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="366" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="366" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="368" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
@@ -6642,34 +6532,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:E123">
-    <cfRule type="containsText" dxfId="89" priority="29" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="78" priority="30" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="29" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="30" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="31" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E122)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="32" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="31" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E122)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101:F101">
-    <cfRule type="containsText" dxfId="86" priority="49" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="75" priority="49" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117:F117">
-    <cfRule type="containsText" dxfId="85" priority="353" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="74" priority="354" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="353" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="354" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E117)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53 H53 E117:F117">
-    <cfRule type="containsText" dxfId="83" priority="120" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="72" priority="120" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6678,124 +6568,126 @@
       <formula>$G53="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F63 F103:F104 C108 F65">
-    <cfRule type="containsText" dxfId="82" priority="386" stopIfTrue="1" operator="containsText" text="VACACIONES">
+  <conditionalFormatting sqref="F54:F63 F65 F103:F104 C108">
+    <cfRule type="containsText" dxfId="71" priority="386" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F73">
-    <cfRule type="containsText" dxfId="78" priority="133" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="70" priority="134" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="133" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="134" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F71)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F80 F82:F83">
-    <cfRule type="containsText" dxfId="76" priority="118" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F71)))</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="117" operator="greaterThan">
       <formula>$G71="Activo"</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="118" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F71)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F80 F82:F90">
-    <cfRule type="containsText" dxfId="75" priority="115" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="67" priority="116" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:F90 F74:F80">
+    <cfRule type="containsText" dxfId="66" priority="115" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="116" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:F90 F92:F94">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:F90">
+    <cfRule type="containsText" dxfId="65" priority="106" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F84)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="105" operator="greaterThan">
       <formula>$G84="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="106" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F84)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F94">
-    <cfRule type="containsText" dxfId="70" priority="137" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="64" priority="137" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="138" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="63" priority="138" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F92)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F100">
-    <cfRule type="containsText" dxfId="68" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F95)))</formula>
+  <conditionalFormatting sqref="F92:F100">
+    <cfRule type="containsText" dxfId="62" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F102">
+    <cfRule type="cellIs" priority="48" operator="greaterThan">
+      <formula>$G92="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F101">
-    <cfRule type="containsText" dxfId="67" priority="47" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="61" priority="46" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="47" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="46" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F102">
-    <cfRule type="cellIs" priority="48" operator="greaterThan">
-      <formula>$G95="Activo"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="containsText" dxfId="65" priority="53" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="59" priority="53" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:F104">
-    <cfRule type="containsText" dxfId="64" priority="51" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="58" priority="52" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="51" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="52" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F102)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="62" priority="87" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="88" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="56" priority="88" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F106)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="89" operator="greaterThan">
       <formula>$G106="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="90" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="55" priority="90" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="87" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
     <cfRule type="cellIs" priority="59" operator="greaterThan">
       <formula>$G110="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="61" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="53" priority="60" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="61" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="62" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="51" priority="62" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="56" priority="57" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="50" priority="56" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="57" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="56" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F112)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:F115">
-    <cfRule type="containsText" dxfId="54" priority="58" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F112)))</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="55" operator="greaterThan">
       <formula>$G112="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="58" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117">
@@ -6803,35 +6695,105 @@
       <formula>$G117="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="47" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="14" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="greaterThan">
+      <formula>$G10="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="44" priority="11" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="12" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="10" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="greaterThan">
+      <formula>$G20="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="41" priority="8" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="7" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="6" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H26)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="greaterThan">
+      <formula>$G26="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="38" priority="20" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="19" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="18" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H37)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="17" operator="greaterThan">
+      <formula>$G37="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H53 F53:F63 F65">
-    <cfRule type="containsText" dxfId="47" priority="121" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="35" priority="121" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="122" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="34" priority="122" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" dxfId="33" priority="2" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="3" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="4" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H64)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>$G64="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="30" priority="150" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="151" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="152" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="153" operator="greaterThan">
       <formula>$G80="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="152" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="151" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="150" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 F113:F115 H117">
-    <cfRule type="containsText" dxfId="42" priority="365" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="27" priority="365" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 H117 F113:F115">
-    <cfRule type="containsText" dxfId="41" priority="364" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="26" priority="364" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6841,7 +6803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="containsText" dxfId="40" priority="144" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="25" priority="144" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",H101)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6861,10 +6823,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120">
-    <cfRule type="containsText" dxfId="39" priority="36" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="24" priority="36" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",H120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="35" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="23" priority="35" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",H120)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6874,15 +6836,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H129">
-    <cfRule type="containsText" dxfId="37" priority="37" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="22" priority="37" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",H120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H129">
-    <cfRule type="containsText" dxfId="36" priority="148" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="21" priority="148" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",H121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="147" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="20" priority="147" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",H121)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6902,15 +6864,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60 I82 I84:I102">
-    <cfRule type="containsText" dxfId="34" priority="259" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="19" priority="260" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="259" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="260" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I60)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60 I82">
-    <cfRule type="containsText" dxfId="32" priority="258" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="17" priority="258" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I60)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6920,14 +6882,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:I76">
-    <cfRule type="containsText" dxfId="31" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="16" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="15" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
@@ -6951,13 +6913,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="28" priority="109" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="13" priority="109" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="107" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="12" priority="107" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="108" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="11" priority="108" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6967,14 +6929,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="25" priority="262" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="10" priority="264" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="262" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="263" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="8" priority="263" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="264" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
@@ -6983,13 +6945,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:I82">
-    <cfRule type="containsText" dxfId="22" priority="265" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="7" priority="266" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="265" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="266" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I81)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="267" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="5" priority="267" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",I81)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6999,7 +6961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:I102">
-    <cfRule type="containsText" dxfId="19" priority="245" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="4" priority="245" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I84)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7008,7 +6970,7 @@
       <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I102 F54:F63 F103:F104 C108 F65">
+  <conditionalFormatting sqref="I102 F54:F63 F65 F103:F104 C108">
     <cfRule type="cellIs" priority="385" operator="greaterThan">
       <formula>$G54="Activo"</formula>
     </cfRule>
@@ -7019,7 +6981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:I121 E108 H117 H82:H115 E105:E106">
-    <cfRule type="containsText" dxfId="18" priority="363" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="3" priority="363" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7034,109 +6996,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122:I123">
-    <cfRule type="containsText" dxfId="17" priority="140" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="2" priority="140" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="141" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="1" priority="142" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="141" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="142" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
     <cfRule type="cellIs" priority="139" operator="greaterThan">
       <formula>$G123="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" priority="17" operator="greaterThan">
-      <formula>$G37="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="14" priority="18" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="12" priority="19" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" priority="13" operator="greaterThan">
-      <formula>$G10="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="11" priority="14" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" priority="9" operator="greaterThan">
-      <formula>$G20="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="8" priority="10" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="6" priority="11" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="12" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" priority="5" operator="greaterThan">
-      <formula>$G26="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="5" priority="6" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="3" priority="7" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" priority="1" operator="greaterThan">
-      <formula>$G64="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="0" priority="3" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
